--- a/database/insert文/イベントカラー.xlsx
+++ b/database/insert文/イベントカラー.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>INSERT INTO tag VALUES (</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,6 +54,10 @@
   </si>
   <si>
     <t>#fff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO event_color VALUES (</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,41 +425,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -473,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE(A1,A3,C1,B3,C1,C3,C1,D1,D3,D1,B1)</f>
-        <v>INSERT INTO tag VALUES (1,4171204,1,"#fff");</v>
+        <v>INSERT INTO event_color VALUES (1,4171204,1,"#fff");</v>
       </c>
     </row>
   </sheetData>
